--- a/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
+++ b/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>フィールド番号</t>
     <rPh sb="5" eb="7">
@@ -169,6 +169,58 @@
     <rPh sb="3" eb="5">
       <t>ジュンバン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>3,1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -192,12 +244,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,8 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -689,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1025,7 +1105,7 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5">
@@ -1459,77 +1539,119 @@
       <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2</v>
+      </c>
+      <c r="S12" s="4">
+        <v>3</v>
+      </c>
+      <c r="T12" s="4">
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <v>4</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>5</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="4">
         <v>6</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>23</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
         <v>7</v>
       </c>
       <c r="Z13" t="s">
         <v>15</v>
       </c>
+      <c r="AF13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>22</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
         <v>8</v>
       </c>
       <c r="Z14">
@@ -1538,27 +1660,48 @@
       <c r="AA14" t="s">
         <v>16</v>
       </c>
+      <c r="AF14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG14">
+        <v>15</v>
+      </c>
+      <c r="AH14">
+        <v>16</v>
+      </c>
+      <c r="AI14">
+        <v>17</v>
+      </c>
+      <c r="AJ14">
+        <v>18</v>
+      </c>
+      <c r="AK14">
+        <v>19</v>
+      </c>
+      <c r="AL14">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>21</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4">
         <v>9</v>
       </c>
       <c r="Z15" t="s">
@@ -1567,74 +1710,158 @@
       <c r="AA15" t="s">
         <v>18</v>
       </c>
+      <c r="AF15">
+        <v>21</v>
+      </c>
+      <c r="AG15">
+        <v>22</v>
+      </c>
+      <c r="AH15">
+        <v>23</v>
+      </c>
+      <c r="AI15">
+        <v>24</v>
+      </c>
+      <c r="AJ15">
+        <v>25</v>
+      </c>
+      <c r="AK15">
+        <v>26</v>
+      </c>
+      <c r="AL15">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>20</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
         <v>10</v>
       </c>
+      <c r="AF16">
+        <v>28</v>
+      </c>
+      <c r="AG16">
+        <v>29</v>
+      </c>
+      <c r="AH16">
+        <v>30</v>
+      </c>
+      <c r="AI16">
+        <v>31</v>
+      </c>
+      <c r="AJ16">
+        <v>32</v>
+      </c>
+      <c r="AK16">
+        <v>33</v>
+      </c>
+      <c r="AL16">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="17:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q17">
+    <row r="17" spans="17:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q17" s="4">
         <v>19</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
         <v>11</v>
       </c>
+      <c r="AF17">
+        <v>35</v>
+      </c>
+      <c r="AG17">
+        <v>36</v>
+      </c>
+      <c r="AH17">
+        <v>37</v>
+      </c>
+      <c r="AI17">
+        <v>38</v>
+      </c>
+      <c r="AJ17">
+        <v>39</v>
+      </c>
+      <c r="AK17">
+        <v>40</v>
+      </c>
+      <c r="AL17">
+        <v>41</v>
+      </c>
     </row>
-    <row r="18" spans="17:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q18">
+    <row r="18" spans="17:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q18" s="4">
         <v>18</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="4">
         <v>17</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <v>16</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="4">
         <v>15</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="4">
         <v>14</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="4">
         <v>13</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="4">
         <v>12</v>
+      </c>
+      <c r="AF18">
+        <v>42</v>
+      </c>
+      <c r="AG18">
+        <v>43</v>
+      </c>
+      <c r="AH18">
+        <v>44</v>
+      </c>
+      <c r="AI18">
+        <v>45</v>
+      </c>
+      <c r="AJ18">
+        <v>46</v>
+      </c>
+      <c r="AK18">
+        <v>47</v>
+      </c>
+      <c r="AL18">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
+++ b/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>フィールド番号</t>
     <rPh sb="5" eb="7">
@@ -221,6 +221,97 @@
   </si>
   <si>
     <t>3,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィード3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行列と高さの確保</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードの配列を最初に確保</t>
+    <rPh sb="5" eb="7">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その配列番号に生成をいれる　</t>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トグロをまく処理がむずい</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -228,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +332,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,12 +386,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -767,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1683,6 +1782,9 @@
       </c>
     </row>
     <row r="15" spans="1:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Q15" s="4">
         <v>21</v>
       </c>
@@ -1776,7 +1878,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="17:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
       <c r="Q17" s="4">
         <v>19</v>
       </c>
@@ -1820,7 +1925,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="17:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
       <c r="Q18" s="4">
         <v>18</v>
       </c>
@@ -1862,6 +1976,500 @@
       </c>
       <c r="AL18">
         <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>-3</v>
+      </c>
+      <c r="R21">
+        <v>-2</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <v>3</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>3</v>
+      </c>
+      <c r="AE21">
+        <v>3</v>
+      </c>
+      <c r="AF21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>-3</v>
+      </c>
+      <c r="R22">
+        <v>-2</v>
+      </c>
+      <c r="S22">
+        <v>-1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>-3</v>
+      </c>
+      <c r="R23">
+        <v>-2</v>
+      </c>
+      <c r="S23">
+        <v>-1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>-3</v>
+      </c>
+      <c r="R24">
+        <v>-2</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>-3</v>
+      </c>
+      <c r="R25">
+        <v>-2</v>
+      </c>
+      <c r="S25">
+        <v>-1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
+        <v>-1</v>
+      </c>
+      <c r="AD25">
+        <v>-1</v>
+      </c>
+      <c r="AE25">
+        <v>-1</v>
+      </c>
+      <c r="AF25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26">
+        <v>-3</v>
+      </c>
+      <c r="R26">
+        <v>-2</v>
+      </c>
+      <c r="S26">
+        <v>-1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>-2</v>
+      </c>
+      <c r="AA26">
+        <v>-2</v>
+      </c>
+      <c r="AB26">
+        <v>-2</v>
+      </c>
+      <c r="AC26">
+        <v>-2</v>
+      </c>
+      <c r="AD26">
+        <v>-2</v>
+      </c>
+      <c r="AE26">
+        <v>-2</v>
+      </c>
+      <c r="AF26">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q27">
+        <v>-3</v>
+      </c>
+      <c r="R27">
+        <v>-2</v>
+      </c>
+      <c r="S27">
+        <v>-1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>-3</v>
+      </c>
+      <c r="AA27">
+        <v>-3</v>
+      </c>
+      <c r="AB27">
+        <v>-3</v>
+      </c>
+      <c r="AC27">
+        <v>-3</v>
+      </c>
+      <c r="AD27">
+        <v>-3</v>
+      </c>
+      <c r="AE27">
+        <v>-3</v>
+      </c>
+      <c r="AF27">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
+++ b/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>フィールド番号</t>
     <rPh sb="5" eb="7">
@@ -311,6 +311,45 @@
     <t>トグロをまく処理がむずい</t>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成を配列ではなく一括にする</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報取得方法</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行列・高さでの取得</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2472,6 +2511,21 @@
         <v>46</v>
       </c>
     </row>
+    <row r="32" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
+++ b/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
+++ b/Graduate_CLIMBGUYS/data/LOAD/MAPPING/map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>フィールド番号</t>
     <rPh sb="5" eb="7">
@@ -351,6 +351,22 @@
     <rPh sb="7" eb="9">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -905,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2500,30 +2516,344 @@
       <c r="F29" t="s">
         <v>44</v>
       </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G30" t="s">
         <v>45</v>
       </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
         <v>46</v>
       </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+      <c r="AE31">
+        <v>2</v>
+      </c>
+      <c r="AF31">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="6:38" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="8:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>6</v>
+      </c>
+      <c r="Z32">
+        <v>3</v>
+      </c>
+      <c r="AA32">
+        <v>3</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>3</v>
+      </c>
+      <c r="AE32">
+        <v>3</v>
+      </c>
+      <c r="AF32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="8:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>4</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>4</v>
+      </c>
+      <c r="AE33">
+        <v>4</v>
+      </c>
+      <c r="AF33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="8:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>49</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="Z34">
+        <v>5</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>5</v>
+      </c>
+      <c r="AC34">
+        <v>5</v>
+      </c>
+      <c r="AD34">
+        <v>5</v>
+      </c>
+      <c r="AE34">
+        <v>5</v>
+      </c>
+      <c r="AF34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="8:32" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AA35">
+        <v>6</v>
+      </c>
+      <c r="AB35">
+        <v>6</v>
+      </c>
+      <c r="AC35">
+        <v>6</v>
+      </c>
+      <c r="AD35">
+        <v>6</v>
+      </c>
+      <c r="AE35">
+        <v>6</v>
+      </c>
+      <c r="AF35">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
